--- a/Calculs/PH2/DataBase_PH2_File B_Divers_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_File B_Divers_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47E562-93D1-4096-BC19-14B5E180F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82504B-E91A-4F74-90B1-CD525125FD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="15230" yWindow="2310" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="48">
   <si>
     <t>fck</t>
   </si>
@@ -1089,9 +1089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AT155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O22" sqref="O22:O29"/>
+      <selection pane="topRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,8 +1239,9 @@
       <c r="L2">
         <v>2.6</v>
       </c>
-      <c r="M2">
-        <v>1.3286000000000001E-3</v>
+      <c r="M2" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
       </c>
       <c r="N2">
         <v>0.06</v>
@@ -1301,7 +1302,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A30" si="0">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A60" si="0">IF(B3=B2,A2,A2+1)</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2317,11 +2318,11 @@
       <c r="K13">
         <v>0.215</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>5.1200000000000009E-4</v>
+      <c r="L13" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.7325000000000001E-3</v>
       </c>
       <c r="N13">
         <v>0.04</v>
@@ -2513,11 +2514,11 @@
       <c r="K15">
         <v>0.215</v>
       </c>
-      <c r="L15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M15">
-        <v>1.694E-3</v>
+      <c r="L15" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M15" s="11">
+        <v>2.5137000000000002E-3</v>
       </c>
       <c r="N15">
         <v>0.04</v>
@@ -2709,11 +2710,11 @@
       <c r="K17">
         <v>0.215</v>
       </c>
-      <c r="L17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M17">
-        <v>2.2572E-3</v>
+      <c r="L17" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2.7958500000000003E-3</v>
       </c>
       <c r="N17">
         <v>0.04</v>
@@ -2905,11 +2906,11 @@
       <c r="K19">
         <v>0.215</v>
       </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>2.565E-3</v>
+      <c r="L19" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2.7958500000000003E-3</v>
       </c>
       <c r="N19">
         <v>0.04</v>
@@ -2971,10 +2972,10 @@
     <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ref="A20:A21" si="7">IF(B20=B19,A19,A19+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -3075,10 +3076,10 @@
     <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6">
         <v>25</v>
@@ -3176,7 +3177,7 @@
     <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -3222,7 +3223,7 @@
       </c>
       <c r="M22">
         <f>(M2*O2)+(M12*O12)/2</f>
-        <v>1.3786E-3</v>
+        <v>2.7358000000000005E-3</v>
       </c>
       <c r="N22">
         <f>MAX(N2,N12)</f>
@@ -3297,7 +3298,7 @@
     <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -3339,11 +3340,11 @@
       </c>
       <c r="L23">
         <f t="shared" ref="L23:L29" si="19">L3+L13/2</f>
-        <v>4.5999999999999996</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M29" si="20">(M3*O3)+(M13*O13)/2</f>
-        <v>5.888E-4</v>
+        <f t="shared" ref="M23:M28" si="20">(M3*O3)+(M13*O13)/2</f>
+        <v>1.1990500000000001E-3</v>
       </c>
       <c r="N23">
         <f t="shared" ref="N23:N29" si="21">MAX(N3,N13)</f>
@@ -3418,7 +3419,7 @@
     <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -3539,7 +3540,7 @@
     <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -3581,11 +3582,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="19"/>
-        <v>4.8000000000000007</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="M25">
         <f t="shared" si="20"/>
-        <v>1.8470000000000001E-3</v>
+        <v>2.2568500000000003E-3</v>
       </c>
       <c r="N25">
         <f t="shared" si="21"/>
@@ -3660,7 +3661,7 @@
     <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
@@ -3781,7 +3782,7 @@
     <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
@@ -3823,11 +3824,11 @@
       </c>
       <c r="L27">
         <f t="shared" si="19"/>
-        <v>4.8000000000000007</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="M27">
         <f t="shared" si="20"/>
-        <v>1.4586E-3</v>
+        <v>1.7279250000000002E-3</v>
       </c>
       <c r="N27">
         <f t="shared" si="21"/>
@@ -3902,7 +3903,7 @@
     <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -4023,7 +4024,7 @@
     <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
@@ -4065,11 +4066,11 @@
       </c>
       <c r="L29">
         <f t="shared" si="19"/>
-        <v>5.0999999999999996</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="M29">
-        <f t="shared" si="20"/>
-        <v>1.6125E-3</v>
+        <f>(M9*O9)+(M19*O19)/2</f>
+        <v>1.7279250000000002E-3</v>
       </c>
       <c r="N29">
         <f t="shared" si="21"/>
@@ -4144,7 +4145,7 @@
     <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
@@ -4216,516 +4217,3182 @@
         <v>38</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" ref="Y30" si="52">IFERROR(IF(ISNUMBER(SEARCH("Appui",C30)),V30+X30*V30,IF(A29&lt;A30,V30-X31*V31/2,IF(A30&lt;A31,V30-(X29*V29)/2,V30-(X31*V31+X29*V29)/2))),0)</f>
+        <f t="shared" ref="Y30:Y31" si="52">IFERROR(IF(ISNUMBER(SEARCH("Appui",C30)),V30+X30*V30,IF(A29&lt;A30,V30-X31*V31/2,IF(A30&lt;A31,V30-(X29*V29)/2,V30-(X31*V31+X29*V29)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" ref="Z30" si="53">IFERROR(IF(ISNUMBER(SEARCH("Appui",C30)),W30+X30*W30,IF(A29&lt;A30,W30-X31*W31/2,IF(A30&lt;A31,W30-(X29*W29)/2,W30-(X31*W31+X29*W29)/2))),0)</f>
+        <f t="shared" ref="Z30:Z31" si="53">IFERROR(IF(ISNUMBER(SEARCH("Appui",C30)),W30+X30*W30,IF(A29&lt;A30,W30-X31*W31/2,IF(A30&lt;A31,W30-(X29*W29)/2,W30-(X31*W31+X29*W29)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" ref="AB30" si="54">Y30*(1-AA30)</f>
+        <f t="shared" ref="AB30:AB31" si="54">Y30*(1-AA30)</f>
         <v>0</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" ref="AC30" si="55">Y30*AA30 + Z30</f>
+        <f t="shared" ref="AC30:AC31" si="55">Y30*AA30 + Z30</f>
         <v>0</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" ref="AD30" si="56">1.35*Y30+1.5*Z30</f>
+        <f t="shared" ref="AD30:AD31" si="56">1.35*Y30+1.5*Z30</f>
         <v>0</v>
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30">
-        <f t="shared" ref="AF30" si="57">AB30+AC30</f>
+        <f t="shared" ref="AF30:AF31" si="57">AB30+AC30</f>
         <v>0</v>
       </c>
       <c r="AT30" s="10"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="O31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="4"/>
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6">
+        <v>25</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6">
+        <v>500</v>
+      </c>
+      <c r="G31" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="AE31" s="4"/>
+      <c r="AF31">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="AT31" s="10"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="O32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="4"/>
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H32">
+        <v>1576</v>
+      </c>
+      <c r="I32">
+        <v>1870</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.23</v>
+      </c>
+      <c r="L32">
+        <v>2.6</v>
+      </c>
+      <c r="M32" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
+      </c>
+      <c r="N32">
+        <v>0.06</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W32">
+        <v>34</v>
+      </c>
+      <c r="X32" s="9">
+        <v>-0.15</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>91.375</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>91.375</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>166.70625000000001</v>
+      </c>
       <c r="AE32" s="4"/>
+      <c r="AF32">
+        <v>120.27500000000001</v>
+      </c>
       <c r="AT32" s="10"/>
     </row>
-    <row r="33" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="4"/>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H33">
+        <v>1576</v>
+      </c>
+      <c r="I33">
+        <v>1870</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.23</v>
+      </c>
+      <c r="L33">
+        <v>2.6</v>
+      </c>
+      <c r="M33">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N33">
+        <v>0.03</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W33">
+        <v>15.9</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>44.552499999999995</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>18.87</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>44.552499999999995</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>18.87</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>88.450874999999996</v>
+      </c>
       <c r="AE33" s="4"/>
+      <c r="AF33">
+        <v>63.422499999999999</v>
+      </c>
       <c r="AT33" s="10"/>
     </row>
-    <row r="34" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="4"/>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+      <c r="G34" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H34">
+        <v>1576</v>
+      </c>
+      <c r="I34">
+        <v>1870</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.23</v>
+      </c>
+      <c r="L34">
+        <v>2.6</v>
+      </c>
+      <c r="M34">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N34">
+        <v>0.06</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+      <c r="V34" s="2">
+        <v>109</v>
+      </c>
+      <c r="W34">
+        <v>42</v>
+      </c>
+      <c r="X34" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>106.82</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>41.16</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>106.82</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>41.16</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>205.947</v>
+      </c>
       <c r="AE34" s="4"/>
+      <c r="AF34">
+        <v>147.97999999999999</v>
+      </c>
       <c r="AT34" s="10"/>
     </row>
-    <row r="35" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="4"/>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H35">
+        <v>1576</v>
+      </c>
+      <c r="I35">
+        <v>1870</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0.23</v>
+      </c>
+      <c r="L35">
+        <v>2.6</v>
+      </c>
+      <c r="M35">
+        <v>1E-3</v>
+      </c>
+      <c r="N35">
+        <v>0.05</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W35">
+        <v>18.2</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>18.62</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>18.62</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>81.916500000000013</v>
+      </c>
       <c r="AE35" s="4"/>
+      <c r="AF35">
+        <v>58.61</v>
+      </c>
       <c r="AT35" s="10"/>
     </row>
-    <row r="36" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="4"/>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H36">
+        <v>1576</v>
+      </c>
+      <c r="I36">
+        <v>1870</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.23</v>
+      </c>
+      <c r="L36">
+        <v>2.6</v>
+      </c>
+      <c r="M36">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N36">
+        <v>0.06</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W36">
+        <v>43.5</v>
+      </c>
+      <c r="X36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>223.875</v>
+      </c>
       <c r="AE36" s="4"/>
+      <c r="AF36">
+        <v>161</v>
+      </c>
       <c r="AT36" s="10"/>
     </row>
-    <row r="37" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="4"/>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H37">
+        <v>1576</v>
+      </c>
+      <c r="I37">
+        <v>1870</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0.23</v>
+      </c>
+      <c r="L37">
+        <v>2.6</v>
+      </c>
+      <c r="M37">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N37">
+        <v>0.03</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W37">
+        <v>18.7</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>80.025000000000006</v>
+      </c>
       <c r="AE37" s="4"/>
+      <c r="AF37">
+        <v>57.2</v>
+      </c>
       <c r="AT37" s="10"/>
     </row>
-    <row r="38" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="4"/>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H38">
+        <v>1576</v>
+      </c>
+      <c r="I38">
+        <v>1870</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.23</v>
+      </c>
+      <c r="L38">
+        <v>2.6</v>
+      </c>
+      <c r="M38">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N38">
+        <v>0.06</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W38">
+        <v>44.35</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>44.35</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>44.35</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>231.9</v>
+      </c>
       <c r="AE38" s="4"/>
+      <c r="AF38">
+        <v>166.85</v>
+      </c>
       <c r="AT38" s="10"/>
     </row>
-    <row r="39" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="4"/>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>500</v>
+      </c>
+      <c r="G39" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H39">
+        <v>1576</v>
+      </c>
+      <c r="I39">
+        <v>1870</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0.23</v>
+      </c>
+      <c r="L39">
+        <v>2.6</v>
+      </c>
+      <c r="M39">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W39">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>80.475000000000009</v>
+      </c>
       <c r="AE39" s="4"/>
+      <c r="AF39">
+        <v>57.6</v>
+      </c>
       <c r="AT39" s="10"/>
     </row>
-    <row r="40" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="4"/>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H40">
+        <v>1576</v>
+      </c>
+      <c r="I40">
+        <v>1870</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0.23</v>
+      </c>
+      <c r="L40">
+        <v>2.6</v>
+      </c>
+      <c r="M40">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N40">
+        <v>0.06</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W40">
+        <v>41.5</v>
+      </c>
+      <c r="X40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>200.625</v>
+      </c>
       <c r="AE40" s="4"/>
+      <c r="AF40">
+        <v>144</v>
+      </c>
       <c r="AT40" s="10"/>
     </row>
-    <row r="41" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="4"/>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="6">
+        <v>25</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="6">
+        <v>500</v>
+      </c>
+      <c r="G41" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <v>1</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+      <c r="T41" s="6">
+        <v>0</v>
+      </c>
+      <c r="U41" s="6">
+        <v>0</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0</v>
+      </c>
+      <c r="W41" s="8">
+        <v>0</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y41" s="2">
+        <f t="shared" ref="Y41" si="58">IFERROR(IF(ISNUMBER(SEARCH("Appui",C41)),V41+X41*V41,IF(A40&lt;A41,V41-X42*V42/2,IF(A41&lt;A42,V41-(X40*V40)/2,V41-(X42*V42+X40*V40)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" ref="Z41" si="59">IFERROR(IF(ISNUMBER(SEARCH("Appui",C41)),W41+X41*W41,IF(A40&lt;A41,W41-X42*W42/2,IF(A41&lt;A42,W41-(X40*W40)/2,W41-(X42*W42+X40*W40)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" ref="AB41" si="60">Y41*(1-AA41)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" ref="AC41" si="61">Y41*AA41 + Z41</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="4">
+        <f t="shared" ref="AD41" si="62">1.35*Y41+1.5*Z41</f>
+        <v>0</v>
+      </c>
       <c r="AE41" s="4"/>
+      <c r="AF41">
+        <f t="shared" ref="AF41" si="63">AB41+AC41</f>
+        <v>0</v>
+      </c>
       <c r="AT41" s="10"/>
     </row>
-    <row r="42" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="4"/>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H42">
+        <v>1576</v>
+      </c>
+      <c r="I42">
+        <v>1870</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.215</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>1E-4</v>
+      </c>
+      <c r="N42">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>25</v>
+      </c>
+      <c r="W42">
+        <v>11</v>
+      </c>
+      <c r="X42" s="9">
+        <v>-0.8</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>10.049999999999999</v>
+      </c>
       <c r="AE42" s="4"/>
+      <c r="AF42">
+        <v>7.1999999999999993</v>
+      </c>
       <c r="AT42" s="10"/>
     </row>
-    <row r="43" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="4"/>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H43">
+        <v>1576</v>
+      </c>
+      <c r="I43">
+        <v>1870</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.215</v>
+      </c>
+      <c r="L43" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1.7325000000000001E-3</v>
+      </c>
+      <c r="N43">
+        <v>0.04</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>6</v>
+      </c>
+      <c r="V43">
+        <v>33</v>
+      </c>
+      <c r="W43">
+        <v>22</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>53.25</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>53.25</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>120.71250000000001</v>
+      </c>
       <c r="AE43" s="4"/>
+      <c r="AF43">
+        <v>85.8</v>
+      </c>
       <c r="AT43" s="10"/>
     </row>
-    <row r="44" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="4"/>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H44">
+        <v>1576</v>
+      </c>
+      <c r="I44">
+        <v>1870</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0.215</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>1E-4</v>
+      </c>
+      <c r="N44">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>10</v>
+      </c>
+      <c r="V44">
+        <v>25</v>
+      </c>
+      <c r="W44">
+        <v>15</v>
+      </c>
+      <c r="X44" s="9">
+        <v>-0.82</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>10.125000000000002</v>
+      </c>
       <c r="AE44" s="4"/>
+      <c r="AF44">
+        <v>7.2000000000000011</v>
+      </c>
       <c r="AT44" s="10"/>
     </row>
-    <row r="45" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="4"/>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H45">
+        <v>1576</v>
+      </c>
+      <c r="I45">
+        <v>1870</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.215</v>
+      </c>
+      <c r="L45" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M45" s="11">
+        <v>2.5137000000000002E-3</v>
+      </c>
+      <c r="N45">
+        <v>0.04</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>6</v>
+      </c>
+      <c r="V45">
+        <v>55</v>
+      </c>
+      <c r="W45">
+        <v>33</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>83.94</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>46.269999999999996</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>83.94</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>46.269999999999996</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>182.72399999999999</v>
+      </c>
       <c r="AE45" s="4"/>
+      <c r="AF45">
+        <v>130.20999999999998</v>
+      </c>
       <c r="AT45" s="10"/>
     </row>
-    <row r="46" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="4"/>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H46">
+        <v>1576</v>
+      </c>
+      <c r="I46">
+        <v>1870</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.215</v>
+      </c>
+      <c r="L46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M46">
+        <v>1E-4</v>
+      </c>
+      <c r="N46">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>42</v>
+      </c>
+      <c r="W46">
+        <v>16</v>
+      </c>
+      <c r="X46" s="9">
+        <v>-0.89</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>4.6199999999999974</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>4.6199999999999974</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>8.8769999999999953</v>
+      </c>
       <c r="AE46" s="4"/>
+      <c r="AF46">
+        <v>6.3799999999999972</v>
+      </c>
       <c r="AT46" s="10"/>
     </row>
-    <row r="47" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="4"/>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H47">
+        <v>1576</v>
+      </c>
+      <c r="I47">
+        <v>1870</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.215</v>
+      </c>
+      <c r="L47" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="M47" s="11">
+        <v>2.7958500000000003E-3</v>
+      </c>
+      <c r="N47">
+        <v>0.04</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>6</v>
+      </c>
+      <c r="V47">
+        <v>55</v>
+      </c>
+      <c r="W47">
+        <v>35</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>86.365000000000009</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>48.879999999999995</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>86.365000000000009</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>48.879999999999995</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>189.91275000000002</v>
+      </c>
       <c r="AE47" s="4"/>
+      <c r="AF47">
+        <v>135.245</v>
+      </c>
       <c r="AT47" s="10"/>
     </row>
-    <row r="48" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="4"/>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H48">
+        <v>1576</v>
+      </c>
+      <c r="I48">
+        <v>1870</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.215</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1E-4</v>
+      </c>
+      <c r="N48">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>10</v>
+      </c>
+      <c r="V48">
+        <v>30</v>
+      </c>
+      <c r="W48">
+        <v>16</v>
+      </c>
+      <c r="X48" s="9">
+        <v>-0.84499999999999997</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>4.6500000000000021</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>2.4800000000000004</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>4.6500000000000021</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>2.4800000000000004</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>9.9975000000000041</v>
+      </c>
       <c r="AE48" s="4"/>
+      <c r="AF48">
+        <v>7.1300000000000026</v>
+      </c>
       <c r="AT48" s="10"/>
     </row>
-    <row r="49" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="4"/>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>500</v>
+      </c>
+      <c r="G49" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H49">
+        <v>1576</v>
+      </c>
+      <c r="I49">
+        <v>1870</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0.215</v>
+      </c>
+      <c r="L49" s="11">
+        <v>5.45</v>
+      </c>
+      <c r="M49" s="11">
+        <v>2.7958500000000003E-3</v>
+      </c>
+      <c r="N49">
+        <v>0.04</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="11">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>60</v>
+      </c>
+      <c r="W49">
+        <v>33</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>72.674999999999997</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>39.76</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>72.674999999999997</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>39.76</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>157.75125</v>
+      </c>
       <c r="AE49" s="4"/>
+      <c r="AF49">
+        <v>112.435</v>
+      </c>
       <c r="AT49" s="10"/>
     </row>
-    <row r="50" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="4"/>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="6">
+        <v>25</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="6">
+        <v>500</v>
+      </c>
+      <c r="G50" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M50" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O50" s="6">
+        <v>1</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>1</v>
+      </c>
+      <c r="S50" s="6">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6">
+        <v>0</v>
+      </c>
+      <c r="U50" s="6">
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
+      <c r="W50" s="8">
+        <v>0</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y50" s="2">
+        <f t="shared" ref="Y50:Y51" si="64">IFERROR(IF(ISNUMBER(SEARCH("Appui",C50)),V50+X50*V50,IF(A49&lt;A50,V50-X51*V51/2,IF(A50&lt;A51,V50-(X49*V49)/2,V50-(X51*V51+X49*V49)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" ref="Z50:Z51" si="65">IFERROR(IF(ISNUMBER(SEARCH("Appui",C50)),W50+X50*W50,IF(A49&lt;A50,W50-X51*W51/2,IF(A50&lt;A51,W50-(X49*W49)/2,W50-(X51*W51+X49*W49)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <f t="shared" ref="AB50:AB51" si="66">Y50*(1-AA50)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" ref="AC50:AC51" si="67">Y50*AA50 + Z50</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="4">
+        <f t="shared" ref="AD50:AD51" si="68">1.35*Y50+1.5*Z50</f>
+        <v>0</v>
+      </c>
       <c r="AE50" s="4"/>
+      <c r="AF50">
+        <f t="shared" ref="AF50:AF60" si="69">AB50+AC50</f>
+        <v>0</v>
+      </c>
       <c r="AT50" s="10"/>
     </row>
-    <row r="51" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="4"/>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="6">
+        <v>25</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="6">
+        <v>500</v>
+      </c>
+      <c r="G51" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O51" s="6">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>1</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6">
+        <v>0</v>
+      </c>
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
+      <c r="W51" s="8">
+        <v>0</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
       <c r="AE51" s="4"/>
+      <c r="AF51">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
       <c r="AT51" s="10"/>
     </row>
-    <row r="52" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="4"/>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:K52" si="70">D32</f>
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="70"/>
+        <v>B</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="70"/>
+        <v>500</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="70"/>
+        <v>220000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="70"/>
+        <v>1576</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="70"/>
+        <v>1870</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="70"/>
+        <v>0.23</v>
+      </c>
+      <c r="L52">
+        <f>L32+L42/2</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M52">
+        <f>(M32*O32)+(M42*O42)/2</f>
+        <v>2.7358000000000005E-3</v>
+      </c>
+      <c r="N52">
+        <f>MAX(N32,N42)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O52" s="10">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ref="P52:P59" si="71">(P36*R36)/2+(P41*R41)+(P46*R46)/2</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52:Q59" si="72">MAX(Q36,Q41,Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52:T59" si="73">MAX(T36,T41,T46)</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="10">
+        <f>U32+U42/2</f>
+        <v>15</v>
+      </c>
+      <c r="V52" s="10">
+        <f>V32+V42/2</f>
+        <v>120</v>
+      </c>
+      <c r="W52" s="10">
+        <f>W32+W42/2</f>
+        <v>39.5</v>
+      </c>
+      <c r="X52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="10">
+        <f>Y32+Y42/2</f>
+        <v>93.875</v>
+      </c>
+      <c r="Z52" s="10">
+        <f>Z32+Z42/2</f>
+        <v>30</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="10">
+        <f>AB32+AB42/2</f>
+        <v>93.875</v>
+      </c>
+      <c r="AC52" s="10">
+        <f>AC32+AC42/2</f>
+        <v>30</v>
+      </c>
+      <c r="AD52" s="4">
+        <f>1.35*Y52+1.5*Z52</f>
+        <v>171.73124999999999</v>
+      </c>
       <c r="AE52" s="4"/>
+      <c r="AF52">
+        <f t="shared" si="69"/>
+        <v>123.875</v>
+      </c>
       <c r="AT52" s="10"/>
     </row>
-    <row r="53" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="4"/>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:K53" si="74">D33</f>
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="74"/>
+        <v>B</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="74"/>
+        <v>500</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="74"/>
+        <v>220000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="74"/>
+        <v>1576</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="74"/>
+        <v>1870</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="74"/>
+        <v>0.23</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L59" si="75">L33+L43/2</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M58" si="76">(M33*O33)+(M43*O43)/2</f>
+        <v>1.1990500000000001E-3</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53:N59" si="77">MAX(N33,N43)</f>
+        <v>0.04</v>
+      </c>
+      <c r="O53" s="10">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="10">
+        <f t="shared" ref="U53:W53" si="78">U33+U43/2</f>
+        <v>10</v>
+      </c>
+      <c r="V53" s="10">
+        <f t="shared" si="78"/>
+        <v>51.9</v>
+      </c>
+      <c r="W53" s="10">
+        <f t="shared" si="78"/>
+        <v>26.9</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="10">
+        <f t="shared" ref="Y53:Z53" si="79">Y33+Y43/2</f>
+        <v>71.177499999999995</v>
+      </c>
+      <c r="Z53" s="10">
+        <f t="shared" si="79"/>
+        <v>35.144999999999996</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="10">
+        <f t="shared" ref="AB53:AC53" si="80">AB33+AB43/2</f>
+        <v>71.177499999999995</v>
+      </c>
+      <c r="AC53" s="10">
+        <f t="shared" si="80"/>
+        <v>35.144999999999996</v>
+      </c>
+      <c r="AD53" s="4">
+        <f t="shared" ref="AD53:AD60" si="81">1.35*Y53+1.5*Z53</f>
+        <v>148.80712499999998</v>
+      </c>
       <c r="AE53" s="4"/>
+      <c r="AF53">
+        <f t="shared" si="69"/>
+        <v>106.32249999999999</v>
+      </c>
       <c r="AT53" s="10"/>
     </row>
-    <row r="54" spans="15:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="4"/>
+    <row r="54" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:K54" si="82">D34</f>
+        <v>25</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="82"/>
+        <v>500</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="82"/>
+        <v>220000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="82"/>
+        <v>1576</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="82"/>
+        <v>1870</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="82"/>
+        <v>0.23</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="75"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="76"/>
+        <v>2.1532999999999999E-3</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="77"/>
+        <v>0.06</v>
+      </c>
+      <c r="O54" s="10">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="10">
+        <f t="shared" ref="U54:W54" si="83">U34+U44/2</f>
+        <v>10</v>
+      </c>
+      <c r="V54" s="10">
+        <f t="shared" si="83"/>
+        <v>121.5</v>
+      </c>
+      <c r="W54" s="10">
+        <f t="shared" si="83"/>
+        <v>49.5</v>
+      </c>
+      <c r="X54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="10">
+        <f t="shared" ref="Y54:Z54" si="84">Y34+Y44/2</f>
+        <v>109.07</v>
+      </c>
+      <c r="Z54" s="10">
+        <f t="shared" si="84"/>
+        <v>42.51</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="10">
+        <f t="shared" ref="AB54:AC54" si="85">AB34+AB44/2</f>
+        <v>109.07</v>
+      </c>
+      <c r="AC54" s="10">
+        <f t="shared" si="85"/>
+        <v>42.51</v>
+      </c>
+      <c r="AD54" s="4">
+        <f t="shared" si="81"/>
+        <v>211.0095</v>
+      </c>
       <c r="AE54" s="4"/>
+      <c r="AF54">
+        <f t="shared" si="69"/>
+        <v>151.57999999999998</v>
+      </c>
       <c r="AT54" s="10"/>
     </row>
-    <row r="55" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="4"/>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:K55" si="86">D35</f>
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="86"/>
+        <v>B</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="86"/>
+        <v>500</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="86"/>
+        <v>220000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="86"/>
+        <v>1576</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="86"/>
+        <v>1870</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="86"/>
+        <v>0.23</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="75"/>
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="76"/>
+        <v>2.2568500000000003E-3</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="77"/>
+        <v>0.05</v>
+      </c>
+      <c r="O55" s="10">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" ref="U55:W55" si="87">U35+U45/2</f>
+        <v>8</v>
+      </c>
+      <c r="V55" s="10">
+        <f t="shared" si="87"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" si="87"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="X55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="10">
+        <f t="shared" ref="Y55:Z55" si="88">Y35+Y45/2</f>
+        <v>81.960000000000008</v>
+      </c>
+      <c r="Z55" s="10">
+        <f t="shared" si="88"/>
+        <v>41.754999999999995</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <f t="shared" ref="AB55:AC55" si="89">AB35+AB45/2</f>
+        <v>81.960000000000008</v>
+      </c>
+      <c r="AC55" s="10">
+        <f t="shared" si="89"/>
+        <v>41.754999999999995</v>
+      </c>
+      <c r="AD55" s="4">
+        <f t="shared" si="81"/>
+        <v>173.27850000000001</v>
+      </c>
       <c r="AE55" s="4"/>
+      <c r="AF55">
+        <f t="shared" si="69"/>
+        <v>123.715</v>
+      </c>
       <c r="AT55" s="10"/>
     </row>
-    <row r="56" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="4"/>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:K56" si="90">D36</f>
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="90"/>
+        <v>B</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="90"/>
+        <v>500</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="90"/>
+        <v>220000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="90"/>
+        <v>1576</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="90"/>
+        <v>1870</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="90"/>
+        <v>0.23</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="75"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="76"/>
+        <v>2.15E-3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="77"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="O56" s="10">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="10">
+        <f t="shared" ref="U56:W56" si="91">U36+U46/2</f>
+        <v>10</v>
+      </c>
+      <c r="V56" s="10">
+        <f t="shared" si="91"/>
+        <v>138.5</v>
+      </c>
+      <c r="W56" s="10">
+        <f t="shared" si="91"/>
+        <v>51.5</v>
+      </c>
+      <c r="X56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="10">
+        <f t="shared" ref="Y56:Z56" si="92">Y36+Y46/2</f>
+        <v>119.81</v>
+      </c>
+      <c r="Z56" s="10">
+        <f t="shared" si="92"/>
+        <v>44.38</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="10">
+        <f t="shared" ref="AB56:AC56" si="93">AB36+AB46/2</f>
+        <v>119.81</v>
+      </c>
+      <c r="AC56" s="10">
+        <f t="shared" si="93"/>
+        <v>44.38</v>
+      </c>
+      <c r="AD56" s="4">
+        <f t="shared" si="81"/>
+        <v>228.31350000000003</v>
+      </c>
       <c r="AE56" s="4"/>
+      <c r="AF56">
+        <f t="shared" si="69"/>
+        <v>164.19</v>
+      </c>
       <c r="AT56" s="10"/>
     </row>
-    <row r="57" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="4"/>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:K57" si="94">D37</f>
+        <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="94"/>
+        <v>B</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="94"/>
+        <v>500</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="94"/>
+        <v>220000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="94"/>
+        <v>1576</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="94"/>
+        <v>1870</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="94"/>
+        <v>0.23</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="75"/>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="76"/>
+        <v>1.7279250000000002E-3</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="77"/>
+        <v>0.04</v>
+      </c>
+      <c r="O57" s="10">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="10">
+        <f t="shared" ref="U57:W57" si="95">U37+U47/2</f>
+        <v>13</v>
+      </c>
+      <c r="V57" s="10">
+        <f t="shared" si="95"/>
+        <v>66</v>
+      </c>
+      <c r="W57" s="10">
+        <f t="shared" si="95"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="10">
+        <f t="shared" ref="Y57:Z59" si="96">Y37+Y47/2</f>
+        <v>81.682500000000005</v>
+      </c>
+      <c r="Z57" s="10">
+        <f t="shared" si="96"/>
+        <v>43.14</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="10">
+        <f t="shared" ref="AB57:AC57" si="97">AB37+AB47/2</f>
+        <v>81.682500000000005</v>
+      </c>
+      <c r="AC57" s="10">
+        <f t="shared" si="97"/>
+        <v>43.14</v>
+      </c>
+      <c r="AD57" s="4">
+        <f t="shared" si="81"/>
+        <v>174.98137500000001</v>
+      </c>
       <c r="AE57" s="4"/>
+      <c r="AF57">
+        <f t="shared" si="69"/>
+        <v>124.82250000000001</v>
+      </c>
       <c r="AT57" s="10"/>
     </row>
-    <row r="58" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="4"/>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:K58" si="98">D38</f>
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="98"/>
+        <v>B</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="98"/>
+        <v>500</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="98"/>
+        <v>220000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="98"/>
+        <v>1576</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="98"/>
+        <v>1870</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="98"/>
+        <v>0.23</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="75"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="76"/>
+        <v>2.15E-3</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="77"/>
+        <v>0.06</v>
+      </c>
+      <c r="O58" s="10">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="10">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="10">
+        <f t="shared" ref="U58:W58" si="99">U38+U48/2</f>
+        <v>15</v>
+      </c>
+      <c r="V58" s="10">
+        <f t="shared" si="99"/>
+        <v>137.5</v>
+      </c>
+      <c r="W58" s="10">
+        <f t="shared" si="99"/>
+        <v>52.35</v>
+      </c>
+      <c r="X58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="10">
+        <f>Y38+Y48/2</f>
+        <v>124.825</v>
+      </c>
+      <c r="Z58" s="10">
+        <f t="shared" si="96"/>
+        <v>45.59</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="10">
+        <f t="shared" ref="AB58:AC58" si="100">AB38+AB48/2</f>
+        <v>124.825</v>
+      </c>
+      <c r="AC58" s="10">
+        <f t="shared" si="100"/>
+        <v>45.59</v>
+      </c>
+      <c r="AD58" s="4">
+        <f t="shared" si="81"/>
+        <v>236.89875000000001</v>
+      </c>
       <c r="AE58" s="4"/>
+      <c r="AF58">
+        <f t="shared" si="69"/>
+        <v>170.41500000000002</v>
+      </c>
       <c r="AT58" s="10"/>
     </row>
-    <row r="59" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="4"/>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:K59" si="101">D39</f>
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="101"/>
+        <v>B</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="101"/>
+        <v>500</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="101"/>
+        <v>220000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="101"/>
+        <v>1576</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="101"/>
+        <v>1870</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="101"/>
+        <v>0.23</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="75"/>
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="M59">
+        <f>(M39*O39)+(M49*O49)/2</f>
+        <v>1.7279250000000002E-3</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="77"/>
+        <v>0.04</v>
+      </c>
+      <c r="O59" s="10">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="10">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
+        <f t="shared" ref="U59:W59" si="102">U39+U49/2</f>
+        <v>13</v>
+      </c>
+      <c r="V59" s="10">
+        <f t="shared" si="102"/>
+        <v>69.5</v>
+      </c>
+      <c r="W59" s="10">
+        <f t="shared" si="102"/>
+        <v>34.6</v>
+      </c>
+      <c r="X59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="10">
+        <f>Y39+Y49/2</f>
+        <v>75.837500000000006</v>
+      </c>
+      <c r="Z59" s="10">
+        <f t="shared" si="96"/>
+        <v>37.980000000000004</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="10">
+        <f t="shared" ref="AB59:AC59" si="103">AB39+AB49/2</f>
+        <v>75.837500000000006</v>
+      </c>
+      <c r="AC59" s="10">
+        <f t="shared" si="103"/>
+        <v>37.980000000000004</v>
+      </c>
+      <c r="AD59" s="4">
+        <f t="shared" si="81"/>
+        <v>159.35062500000001</v>
+      </c>
       <c r="AE59" s="4"/>
+      <c r="AF59">
+        <f t="shared" si="69"/>
+        <v>113.81750000000001</v>
+      </c>
       <c r="AT59" s="10"/>
     </row>
-    <row r="60" spans="15:46" x14ac:dyDescent="0.35">
-      <c r="O60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="4"/>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="6">
+        <v>25</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="6">
+        <v>500</v>
+      </c>
+      <c r="G60" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L60" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M60" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O60" s="6">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="6">
+        <v>1</v>
+      </c>
+      <c r="S60" s="6">
+        <v>0</v>
+      </c>
+      <c r="T60" s="6">
+        <v>0</v>
+      </c>
+      <c r="U60" s="6">
+        <v>0</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0</v>
+      </c>
+      <c r="W60" s="8">
+        <v>0</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" ref="Y60" si="104">IFERROR(IF(ISNUMBER(SEARCH("Appui",C60)),V60+X60*V60,IF(A59&lt;A60,V60-X61*V61/2,IF(A60&lt;A61,V60-(X59*V59)/2,V60-(X61*V61+X59*V59)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <f t="shared" ref="Z60" si="105">IFERROR(IF(ISNUMBER(SEARCH("Appui",C60)),W60+X60*W60,IF(A59&lt;A60,W60-X61*W61/2,IF(A60&lt;A61,W60-(X59*W59)/2,W60-(X61*W61+X59*W59)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" ref="AB60" si="106">Y60*(1-AA60)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" ref="AC60" si="107">Y60*AA60 + Z60</f>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
       <c r="AE60" s="4"/>
+      <c r="AF60">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
       <c r="AT60" s="10"/>
     </row>
-    <row r="61" spans="15:46" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="O61" s="10"/>
       <c r="R61" s="10"/>
       <c r="U61" s="10"/>
@@ -4741,7 +7408,7 @@
       <c r="AE61" s="4"/>
       <c r="AT61" s="10"/>
     </row>
-    <row r="62" spans="15:46" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="O62" s="10"/>
       <c r="R62" s="10"/>
       <c r="U62" s="10"/>
@@ -4757,7 +7424,7 @@
       <c r="AE62" s="4"/>
       <c r="AT62" s="10"/>
     </row>
-    <row r="63" spans="15:46" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="O63" s="10"/>
       <c r="R63" s="10"/>
       <c r="U63" s="10"/>
@@ -4773,7 +7440,7 @@
       <c r="AE63" s="4"/>
       <c r="AT63" s="10"/>
     </row>
-    <row r="64" spans="15:46" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="O64" s="10"/>
       <c r="R64" s="10"/>
       <c r="U64" s="10"/>
